--- a/VerificadorTP3.xlsx
+++ b/VerificadorTP3.xlsx
@@ -499,7 +499,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="41">
   <si>
     <t>min_conflicts</t>
   </si>
@@ -660,10 +660,7 @@
     <t>Posición</t>
   </si>
   <si>
-    <t>Bahias de carga</t>
-  </si>
-  <si>
-    <t>Iteraciones: 30000</t>
+    <t>Iteraciones: 15000</t>
   </si>
 </sst>
 </file>
@@ -1016,9 +1013,6 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1035,11 +1029,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -3238,8 +3235,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:R45"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="H20" sqref="H20"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="C20" sqref="C20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3456,7 +3453,7 @@
     <row r="12" spans="1:15" x14ac:dyDescent="0.25">
       <c r="C12" s="10" t="str">
         <f>Datos!L3</f>
-        <v>Lasers</v>
+        <v>Motores</v>
       </c>
       <c r="F12" s="1"/>
       <c r="H12" s="1"/>
@@ -3465,7 +3462,7 @@
       <c r="K12" s="1"/>
       <c r="L12" s="10" t="str">
         <f>Datos!D3</f>
-        <v>Cabinas</v>
+        <v>Bahias</v>
       </c>
       <c r="M12" s="1"/>
       <c r="N12" s="1"/>
@@ -3474,7 +3471,7 @@
     <row r="13" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A13" s="9" t="str">
         <f>Datos!N3</f>
-        <v>Bahias de carga</v>
+        <v>Motores</v>
       </c>
       <c r="B13" s="13"/>
       <c r="C13" s="14"/>
@@ -3503,23 +3500,23 @@
       <c r="J14" s="19"/>
       <c r="K14" s="2" t="str">
         <f>Datos!F3</f>
-        <v>Sist V.E</v>
+        <v>Cabinas</v>
       </c>
       <c r="L14" s="19"/>
       <c r="M14" s="2" t="str">
         <f>Datos!B3</f>
-        <v>Bahias de carga</v>
+        <v>Sist V.E</v>
       </c>
       <c r="N14" s="19"/>
       <c r="O14" s="2" t="str">
         <f>Datos!A3</f>
-        <v>Lasers</v>
+        <v>Cabinas</v>
       </c>
     </row>
     <row r="15" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A15" s="9" t="str">
         <f>Datos!Q3</f>
-        <v>Cabinas</v>
+        <v>Baterias</v>
       </c>
       <c r="B15" s="17"/>
       <c r="C15" s="2" t="str">
@@ -3529,17 +3526,17 @@
       <c r="D15" s="18"/>
       <c r="E15" s="4" t="str">
         <f>Datos!J3</f>
-        <v>Baterias</v>
+        <v>Cabinas</v>
       </c>
       <c r="F15" s="20"/>
       <c r="G15" s="4" t="str">
         <f>Datos!K3</f>
-        <v>Escudos</v>
+        <v>Bahias</v>
       </c>
       <c r="H15" s="20"/>
       <c r="I15" s="4" t="str">
         <f>Datos!H3</f>
-        <v>Bahias de carga</v>
+        <v>Sist V.E</v>
       </c>
       <c r="J15" s="19"/>
       <c r="K15" s="19"/>
@@ -3560,17 +3557,17 @@
       <c r="J16" s="19"/>
       <c r="K16" s="2" t="str">
         <f>Datos!I3</f>
-        <v>Cabinas</v>
+        <v>Baterias</v>
       </c>
       <c r="L16" s="19"/>
       <c r="M16" s="2" t="str">
         <f>Datos!E3</f>
-        <v>Baterias</v>
+        <v>Lasers</v>
       </c>
       <c r="N16" s="19"/>
       <c r="O16" s="2" t="str">
         <f>Datos!C3</f>
-        <v>Escudos</v>
+        <v>Bahias</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.25">
@@ -3597,7 +3594,7 @@
     <row r="18" spans="1:17" x14ac:dyDescent="0.25">
       <c r="C18" s="12" t="str">
         <f>Datos!O3</f>
-        <v>Motores</v>
+        <v>Lasers</v>
       </c>
       <c r="F18" s="1"/>
       <c r="G18" s="1"/>
@@ -3607,7 +3604,7 @@
       <c r="K18" s="1"/>
       <c r="L18" s="12" t="str">
         <f>Datos!G3</f>
-        <v>Sist V.E</v>
+        <v>Escudos</v>
       </c>
       <c r="M18" s="1"/>
       <c r="N18" s="1"/>
@@ -3647,12 +3644,12 @@
       <c r="P22" s="5"/>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="N23" s="38" t="s">
+      <c r="N23" s="37" t="s">
         <v>34</v>
       </c>
-      <c r="O23" s="42"/>
-      <c r="P23" s="40"/>
-      <c r="Q23" s="40"/>
+      <c r="O23" s="41"/>
+      <c r="P23" s="39"/>
+      <c r="Q23" s="39"/>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A24" s="6" t="s">
@@ -3670,12 +3667,12 @@
       <c r="K24" s="5"/>
       <c r="L24" s="5"/>
       <c r="M24" s="5"/>
-      <c r="N24" s="38">
+      <c r="N24" s="37">
         <v>1</v>
       </c>
-      <c r="O24" s="43"/>
+      <c r="O24" s="42"/>
       <c r="P24" s="26"/>
-      <c r="Q24" s="41"/>
+      <c r="Q24" s="40"/>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A25" s="6" t="s">
@@ -3693,12 +3690,12 @@
       <c r="K25" s="5"/>
       <c r="L25" s="5"/>
       <c r="M25" s="5"/>
-      <c r="N25" s="38">
+      <c r="N25" s="37">
         <v>2</v>
       </c>
-      <c r="O25" s="43"/>
+      <c r="O25" s="42"/>
       <c r="P25" s="26"/>
-      <c r="Q25" s="41"/>
+      <c r="Q25" s="40"/>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A26" s="6" t="s">
@@ -3716,12 +3713,12 @@
       <c r="K26" s="5"/>
       <c r="L26" s="5"/>
       <c r="M26" s="5"/>
-      <c r="N26" s="38">
+      <c r="N26" s="37">
         <v>3</v>
       </c>
-      <c r="O26" s="43"/>
+      <c r="O26" s="42"/>
       <c r="P26" s="26"/>
-      <c r="Q26" s="41"/>
+      <c r="Q26" s="40"/>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A27" s="6" t="s">
@@ -3739,12 +3736,12 @@
       <c r="K27" s="5"/>
       <c r="L27" s="5"/>
       <c r="M27" s="5"/>
-      <c r="N27" s="39">
+      <c r="N27" s="38">
         <v>4</v>
       </c>
-      <c r="O27" s="43"/>
+      <c r="O27" s="42"/>
       <c r="P27" s="26"/>
-      <c r="Q27" s="41"/>
+      <c r="Q27" s="40"/>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A28" s="6" t="s">
@@ -3762,12 +3759,12 @@
       <c r="K28" s="5"/>
       <c r="L28" s="5"/>
       <c r="M28" s="5"/>
-      <c r="N28" s="39">
+      <c r="N28" s="38">
         <v>5</v>
       </c>
-      <c r="O28" s="43"/>
+      <c r="O28" s="42"/>
       <c r="P28" s="26"/>
-      <c r="Q28" s="41"/>
+      <c r="Q28" s="40"/>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A29" s="6" t="s">
@@ -3785,12 +3782,12 @@
       <c r="K29" s="5"/>
       <c r="L29" s="5"/>
       <c r="M29" s="5"/>
-      <c r="N29" s="39">
+      <c r="N29" s="38">
         <v>6</v>
       </c>
-      <c r="O29" s="43"/>
+      <c r="O29" s="42"/>
       <c r="P29" s="26"/>
-      <c r="Q29" s="41"/>
+      <c r="Q29" s="40"/>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A30" s="6" t="s">
@@ -3808,12 +3805,12 @@
       <c r="K30" s="5"/>
       <c r="L30" s="5"/>
       <c r="M30" s="5"/>
-      <c r="N30" s="39">
+      <c r="N30" s="38">
         <v>7</v>
       </c>
-      <c r="O30" s="43"/>
+      <c r="O30" s="42"/>
       <c r="P30" s="26"/>
-      <c r="Q30" s="41"/>
+      <c r="Q30" s="40"/>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A31" s="6" t="s">
@@ -3831,12 +3828,12 @@
       <c r="K31" s="5"/>
       <c r="L31" s="5"/>
       <c r="M31" s="5"/>
-      <c r="N31" s="39">
+      <c r="N31" s="38">
         <v>8</v>
       </c>
-      <c r="O31" s="43"/>
+      <c r="O31" s="42"/>
       <c r="P31" s="26"/>
-      <c r="Q31" s="41"/>
+      <c r="Q31" s="40"/>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A32" s="5"/>
@@ -3857,25 +3854,25 @@
       <c r="P32" s="5"/>
     </row>
     <row r="33" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A33" s="46" t="s">
+      <c r="A33" s="45" t="s">
         <v>39</v>
       </c>
-      <c r="B33" s="46"/>
-      <c r="C33" s="46"/>
-      <c r="D33" s="46"/>
-      <c r="E33" s="46"/>
-      <c r="F33" s="46"/>
-      <c r="G33" s="46"/>
-      <c r="H33" s="46"/>
-      <c r="I33" s="46"/>
-      <c r="J33" s="46"/>
-      <c r="K33" s="46"/>
-      <c r="L33" s="46"/>
-      <c r="M33" s="46"/>
-      <c r="N33" s="46"/>
-      <c r="O33" s="46"/>
-      <c r="P33" s="46"/>
-      <c r="Q33" s="46"/>
+      <c r="B33" s="45"/>
+      <c r="C33" s="45"/>
+      <c r="D33" s="45"/>
+      <c r="E33" s="45"/>
+      <c r="F33" s="45"/>
+      <c r="G33" s="45"/>
+      <c r="H33" s="45"/>
+      <c r="I33" s="45"/>
+      <c r="J33" s="45"/>
+      <c r="K33" s="45"/>
+      <c r="L33" s="45"/>
+      <c r="M33" s="45"/>
+      <c r="N33" s="45"/>
+      <c r="O33" s="45"/>
+      <c r="P33" s="45"/>
+      <c r="Q33" s="45"/>
     </row>
     <row r="34" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A34" s="29" t="s">
@@ -4396,7 +4393,7 @@
         <v>OK</v>
       </c>
       <c r="L41" s="27" t="str">
-        <f>IF($C$15="Baterias",IF((COUNTIF(C12,"Lasers") + COUNTIF(C12,"Cabinas") + COUNTIF(C12,"Escudos") + COUNTIF(C12,"Sistemas V.E") + COUNTIF(C18,"Lasers") + COUNTIF(C18,"Cabinas") + COUNTIF(C18,"Escudos") + COUNTIF(C18,"Sistemas V.E") + COUNTIF(E15,"Lasers") + COUNTIF(E15,"Cabinas") + COUNTIF(E15,"Escudos") + COUNTIF(E15,"Sistemas V.E") + COUNTIF(A15,"Lasers") + COUNTIF(A15,"Cabinas") + COUNTIF(A15,"Escudos") + COUNTIF(A15,"Sistemas V.E")) &gt;= 2,"OK","ERROR"),"OK")</f>
+        <f>IF($C$15="Baterias",IF((COUNTIF(C12,"Lasers") + COUNTIF(C12,"Cabinas") + COUNTIF(C12,"Escudos") + COUNTIF(C12,"Sist V.E") + COUNTIF(C18,"Lasers") + COUNTIF(C18,"Cabinas") + COUNTIF(C18,"Escudos") + COUNTIF(C18,"Sist V.E") + COUNTIF(E15,"Lasers") + COUNTIF(E15,"Cabinas") + COUNTIF(E15,"Escudos") + COUNTIF(E15,"Sist V.E") + COUNTIF(A15,"Lasers") + COUNTIF(A15,"Cabinas") + COUNTIF(A15,"Escudos") + COUNTIF(A15,"Sist V.E")) &gt;= 2,"OK","ERROR"),"OK")</f>
         <v>OK</v>
       </c>
       <c r="M41" s="27" t="str">
@@ -4578,7 +4575,7 @@
   <dimension ref="A1:R9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F22" sqref="F22"/>
+      <selection activeCell="A3" sqref="A3:Q3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4603,25 +4600,25 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:18" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A1" s="37" t="s">
+      <c r="A1" s="46" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="37"/>
-      <c r="C1" s="37"/>
-      <c r="D1" s="37"/>
-      <c r="E1" s="37"/>
-      <c r="F1" s="37"/>
-      <c r="G1" s="37"/>
-      <c r="H1" s="37"/>
-      <c r="I1" s="37"/>
-      <c r="J1" s="37"/>
-      <c r="K1" s="37"/>
-      <c r="L1" s="37"/>
-      <c r="M1" s="37"/>
-      <c r="N1" s="37"/>
-      <c r="O1" s="37"/>
-      <c r="P1" s="37"/>
-      <c r="Q1" s="37"/>
+      <c r="B1" s="46"/>
+      <c r="C1" s="46"/>
+      <c r="D1" s="46"/>
+      <c r="E1" s="46"/>
+      <c r="F1" s="46"/>
+      <c r="G1" s="46"/>
+      <c r="H1" s="46"/>
+      <c r="I1" s="46"/>
+      <c r="J1" s="46"/>
+      <c r="K1" s="46"/>
+      <c r="L1" s="46"/>
+      <c r="M1" s="46"/>
+      <c r="N1" s="46"/>
+      <c r="O1" s="46"/>
+      <c r="P1" s="46"/>
+      <c r="Q1" s="46"/>
       <c r="R1" s="36"/>
     </row>
     <row r="2" spans="1:18" x14ac:dyDescent="0.25">
@@ -4679,92 +4676,92 @@
     </row>
     <row r="3" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E3" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="C3" s="3" t="s">
+      <c r="F3" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G3" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D3" s="3" t="s">
+      <c r="H3" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="I3" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="J3" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="E3" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="F3" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="G3" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="H3" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="I3" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="J3" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="K3" s="3" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L3" s="3" t="s">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="M3" s="3" t="s">
         <v>14</v>
       </c>
       <c r="N3" s="3" t="s">
-        <v>40</v>
+        <v>6</v>
       </c>
       <c r="O3" s="3" t="s">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="P3" s="3" t="s">
         <v>2</v>
       </c>
       <c r="Q3" s="3" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="R3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="7" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A7" s="45" t="s">
+      <c r="A7" s="43" t="s">
         <v>36</v>
       </c>
-      <c r="B7" s="45"/>
-      <c r="C7" s="45"/>
-      <c r="D7" s="45"/>
-      <c r="E7" s="45"/>
-      <c r="F7" s="45"/>
-      <c r="G7" s="45"/>
+      <c r="B7" s="43"/>
+      <c r="C7" s="43"/>
+      <c r="D7" s="43"/>
+      <c r="E7" s="43"/>
+      <c r="F7" s="43"/>
+      <c r="G7" s="43"/>
     </row>
     <row r="8" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A8" s="45" t="s">
+      <c r="A8" s="43" t="s">
         <v>37</v>
       </c>
-      <c r="B8" s="45"/>
-      <c r="C8" s="45"/>
-      <c r="D8" s="45"/>
-      <c r="E8" s="45"/>
-      <c r="F8" s="45"/>
-      <c r="G8" s="45"/>
+      <c r="B8" s="43"/>
+      <c r="C8" s="43"/>
+      <c r="D8" s="43"/>
+      <c r="E8" s="43"/>
+      <c r="F8" s="43"/>
+      <c r="G8" s="43"/>
     </row>
     <row r="9" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A9" s="45" t="s">
+      <c r="A9" s="43" t="s">
         <v>38</v>
       </c>
-      <c r="B9" s="45"/>
-      <c r="C9" s="45"/>
-      <c r="D9" s="45"/>
-      <c r="E9" s="45"/>
-      <c r="F9" s="45"/>
-      <c r="G9" s="45"/>
+      <c r="B9" s="43"/>
+      <c r="C9" s="43"/>
+      <c r="D9" s="43"/>
+      <c r="E9" s="43"/>
+      <c r="F9" s="43"/>
+      <c r="G9" s="43"/>
     </row>
   </sheetData>
   <mergeCells count="1">
